--- a/src/siva.xlsx
+++ b/src/siva.xlsx
@@ -13,6 +13,23 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+  <si>
+    <t>siva1</t>
+  </si>
+  <si>
+    <t>siab1</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>hero1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -362,6 +379,34 @@
       </c>
       <c r="D1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/siva.xlsx
+++ b/src/siva.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
   <si>
     <t>siva1</t>
   </si>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,6 +407,116 @@
       </c>
       <c r="D3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/siva.xlsx
+++ b/src/siva.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="5">
   <si>
     <t>siva1</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>hero1</t>
+  </si>
+  <si>
+    <t>zero</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,40 +416,64 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>2</v>
       </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>2</v>
       </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">

--- a/src/siva.xlsx
+++ b/src/siva.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="7">
   <si>
     <t>siva1</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>zero</t>
+  </si>
+  <si>
+    <t>mahesh</t>
+  </si>
+  <si>
+    <t>pawan</t>
   </si>
 </sst>
 </file>
@@ -365,7 +371,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -419,6 +425,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -433,7 +442,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
